--- a/data/euro-ccp/euro-ccp-Q1-2016.xlsx
+++ b/data/euro-ccp/euro-ccp-Q1-2016.xlsx
@@ -612,10 +612,10 @@
         <v>33325334</v>
       </c>
       <c r="R2" t="n">
-        <v>176493863</v>
+        <v>178762698</v>
       </c>
       <c r="S2" t="n">
-        <v>801500737</v>
+        <v>803769572</v>
       </c>
       <c r="T2" t="n">
         <v>1063077923</v>
